--- a/data_voor_swing/aggregatietabellen/gemeente_fo_gem.xlsx
+++ b/data_voor_swing/aggregatietabellen/gemeente_fo_gem.xlsx
@@ -712,7 +712,7 @@
     </row>
     <row r="33" spans="1:2" s="0" outlineLevel="0">
       <c r="A33" s="23">
-        <v>71022</v>
+        <v>71072</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
